--- a/biology/Zoologie/Bulbul_d'Ansorge/Bulbul_d'Ansorge.xlsx
+++ b/biology/Zoologie/Bulbul_d'Ansorge/Bulbul_d'Ansorge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bulbul_d%27Ansorge</t>
+          <t>Bulbul_d'Ansorge</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurillas ansorgei
 Le Bulbul d'Ansorge (Eurillas ansorgei) est une espèce de passereaux de la famille des Pycnonotidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bulbul_d%27Ansorge</t>
+          <t>Bulbul_d'Ansorge</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit au Cameroun, en République centrafricaine, en République du Congo, en République démocratique du Congo, en Côte d'Ivoire, au Gabon, au Ghana, en Guinée, en Guinée équatoriale, au Kenya, au Libéria, au Nigéria, en Ouganda et au Sierra Leone.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bulbul_d%27Ansorge</t>
+          <t>Bulbul_d'Ansorge</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son habitat naturel est les forêts subtropicales ou tropicales en plaine.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bulbul_d%27Ansorge</t>
+          <t>Bulbul_d'Ansorge</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cet oiseau est représenté par deux sous-espèces :
 Eurillas ansorgei ansorgei Hartert 1907 ;
